--- a/model/EVAL.xlsx
+++ b/model/EVAL.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <name val="Arial"/>
@@ -70,40 +67,43 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -297,107 +297,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="3.51" customWidth="1" style="6" min="1" max="1"/>
-    <col width="10.2" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.48" customWidth="1" style="6" min="3" max="3"/>
-    <col width="14.23" customWidth="1" style="6" min="4" max="4"/>
-    <col width="15.34" customWidth="1" style="6" min="5" max="5"/>
-    <col width="12.84" customWidth="1" style="6" min="6" max="6"/>
-    <col width="5.32" customWidth="1" style="6" min="7" max="7"/>
-    <col width="7.97" customWidth="1" style="6" min="8" max="8"/>
-    <col width="9.640000000000001" customWidth="1" style="6" min="9" max="9"/>
-    <col width="7.16" customWidth="1" style="6" min="10" max="10"/>
-    <col width="12.42" customWidth="1" style="6" min="11" max="11"/>
-    <col width="11.73" customWidth="1" style="6" min="12" max="12"/>
-    <col width="10.89" customWidth="1" style="6" min="13" max="13"/>
-    <col width="9.789999999999999" customWidth="1" style="6" min="14" max="14"/>
-    <col width="18.41" customWidth="1" style="6" min="15" max="15"/>
-    <col width="17.29" customWidth="1" style="6" min="16" max="16"/>
-    <col width="16.04" customWidth="1" style="6" min="17" max="17"/>
-    <col width="14.93" customWidth="1" style="6" min="18" max="18"/>
-    <col width="16.89" customWidth="1" style="6" min="19" max="19"/>
-    <col width="15.76" customWidth="1" style="6" min="20" max="20"/>
-    <col width="14.52" customWidth="1" style="6" min="21" max="21"/>
-    <col width="13.4" customWidth="1" style="6" min="22" max="22"/>
-    <col width="12.7" customWidth="1" style="6" min="23" max="23"/>
-    <col width="49.01" customWidth="1" style="6" min="25" max="25"/>
+    <col width="3.51" customWidth="1" style="7" min="1" max="1"/>
+    <col width="10.2" customWidth="1" style="7" min="2" max="2"/>
+    <col width="9.48" customWidth="1" style="7" min="3" max="3"/>
+    <col width="20.07" customWidth="1" style="7" min="4" max="4"/>
+    <col width="15.34" customWidth="1" style="7" min="5" max="5"/>
+    <col width="12.84" customWidth="1" style="7" min="6" max="6"/>
+    <col width="5.32" customWidth="1" style="7" min="7" max="7"/>
+    <col width="7.97" customWidth="1" style="7" min="8" max="8"/>
+    <col width="9.640000000000001" customWidth="1" style="7" min="9" max="9"/>
+    <col width="7.16" customWidth="1" style="8" min="10" max="10"/>
+    <col width="12.42" customWidth="1" style="7" min="11" max="11"/>
+    <col width="11.73" customWidth="1" style="7" min="12" max="12"/>
+    <col width="10.89" customWidth="1" style="9" min="13" max="13"/>
+    <col width="9.789999999999999" customWidth="1" style="9" min="14" max="14"/>
+    <col width="18.41" customWidth="1" style="9" min="15" max="15"/>
+    <col width="17.29" customWidth="1" style="9" min="16" max="16"/>
+    <col width="16.04" customWidth="1" style="9" min="17" max="17"/>
+    <col width="14.93" customWidth="1" style="9" min="18" max="18"/>
+    <col width="16.89" customWidth="1" style="9" min="19" max="19"/>
+    <col width="15.76" customWidth="1" style="9" min="20" max="20"/>
+    <col width="14.52" customWidth="1" style="9" min="21" max="21"/>
+    <col width="13.4" customWidth="1" style="9" min="22" max="22"/>
+    <col width="12.7" customWidth="1" style="7" min="23" max="23"/>
+    <col width="49.01" customWidth="1" style="7" min="25" max="25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="7">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="10">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>IMG_SIZE</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>VARIANT</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>HEAD_ARCH</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>PARAM_COUNT</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>BATCH_SIZE</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>EPC</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>DTS_ID</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>DTS_LEN</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>LR_RT</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>TRAIN_TIME</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>VRAM_USG</t>
         </is>
       </c>
-      <c r="M1" s="8" t="inlineStr">
+      <c r="M1" s="9" t="inlineStr">
         <is>
           <t>VAL_LOSS</t>
         </is>
       </c>
-      <c r="N1" s="8" t="inlineStr">
+      <c r="N1" s="9" t="inlineStr">
         <is>
           <t>TS_LOSS</t>
         </is>
@@ -427,169 +427,169 @@
           <t>VAL_TRANS_ACC</t>
         </is>
       </c>
-      <c r="T1" s="10" t="inlineStr">
+      <c r="T1" s="9" t="inlineStr">
         <is>
           <t>TS_TRANS_ACC</t>
         </is>
       </c>
-      <c r="U1" s="10" t="inlineStr">
+      <c r="U1" s="9" t="inlineStr">
         <is>
           <t>VAL_ROT_ACC</t>
         </is>
       </c>
-      <c r="V1" s="10" t="inlineStr">
+      <c r="V1" s="9" t="inlineStr">
         <is>
           <t>TS_ROT_ACC</t>
         </is>
       </c>
-      <c r="W1" s="10" t="inlineStr">
+      <c r="W1" s="11" t="inlineStr">
         <is>
           <t>VAL_INF_MS</t>
         </is>
       </c>
-      <c r="X1" s="10" t="inlineStr">
+      <c r="X1" s="11" t="inlineStr">
         <is>
           <t>TS_INF_MS</t>
         </is>
       </c>
-      <c r="Y1" s="6" t="inlineStr">
+      <c r="Y1" s="7" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="7">
-      <c r="A2" s="6" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="10">
+      <c r="A2" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <v>384</v>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>VANILA</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="7" t="inlineStr">
         <is>
           <t>640 → 512 → 9</t>
         </is>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="7" t="n">
         <v>332288</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <v>21711</v>
       </c>
-      <c r="J2" s="6" t="inlineStr">
-        <is>
-          <t>1e-4</t>
-        </is>
-      </c>
-      <c r="K2" s="6" t="n">
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K2" s="7" t="n">
         <v>120</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <v>8.4</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="9" t="n">
         <v>0.3149</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="9" t="n">
         <v>0.3168</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="9" t="n">
         <v>0.0461</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="9" t="n">
         <v>0.0007</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="9" t="n">
         <v>17.8586</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="9" t="n">
         <v>0.2642</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="9" t="n">
         <v>86.2</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="9" t="n">
         <v>86.36</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="9" t="n">
         <v>95.04000000000001</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="9" t="n">
         <v>95</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="Y2" s="6" t="inlineStr">
+      <c r="Y2" s="7" t="inlineStr">
         <is>
           <t>Good accuracy, high VRAM, vanilla baseline</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="7">
-      <c r="A3" s="6" t="n">
+    <row r="3" ht="12.75" customHeight="1" s="10">
+      <c r="A3" s="7" t="n">
         <v>71</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="7" t="n">
         <v>384</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>VANILA</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>640 → 512 → 9</t>
         </is>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="7" t="n">
         <v>332288</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>7237</v>
       </c>
-      <c r="J3" s="6" t="inlineStr">
-        <is>
-          <t>1e-4</t>
-        </is>
-      </c>
-      <c r="K3" s="6" t="n">
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="9" t="n">
         <v>0.6002</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="9" t="n">
         <v>0.6163999999999999</v>
       </c>
       <c r="O3" s="9" t="n">
@@ -604,232 +604,711 @@
       <c r="R3" s="9" t="n">
         <v>35.1003</v>
       </c>
-      <c r="S3" s="10" t="n">
+      <c r="S3" s="9" t="n">
         <v>82.56</v>
       </c>
-      <c r="T3" s="10" t="n">
+      <c r="T3" s="9" t="n">
         <v>84.3</v>
       </c>
-      <c r="U3" s="10" t="n">
+      <c r="U3" s="9" t="n">
         <v>90.48999999999999</v>
       </c>
-      <c r="V3" s="10" t="n">
+      <c r="V3" s="9" t="n">
         <v>90.23999999999999</v>
       </c>
-      <c r="W3" s="10" t="n">
+      <c r="W3" s="11" t="n">
         <v>0.18</v>
       </c>
-      <c r="X3" s="10" t="n">
+      <c r="X3" s="11" t="n">
         <v>0.28</v>
       </c>
-      <c r="Y3" s="6" t="inlineStr">
+      <c r="Y3" s="7" t="inlineStr">
         <is>
           <t>Good accuracy, moderately high loss</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="7">
-      <c r="A4" s="6" t="n">
+    <row r="4" ht="12.75" customHeight="1" s="10">
+      <c r="A4" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <v>224</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>VANILA</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>640 → 256 → 9</t>
         </is>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <v>165000</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>7237</v>
       </c>
-      <c r="J4" s="6" t="inlineStr">
-        <is>
-          <t>1e-4</t>
-        </is>
-      </c>
-      <c r="K4" s="6" t="n">
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K4" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="9" t="n">
         <v>0.6945</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="9" t="n">
         <v>0.6791</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="9" t="n">
         <v>0.0559</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="9" t="n">
         <v>0.0568</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="9" t="n">
         <v>39.5278</v>
       </c>
-      <c r="R4" s="6" t="n">
+      <c r="R4" s="9" t="n">
         <v>38.6326</v>
       </c>
-      <c r="S4" s="6" t="n">
+      <c r="S4" s="9" t="n">
         <v>81</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="T4" s="9" t="n">
         <v>82.16</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="U4" s="9" t="n">
         <v>89.02</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="V4" s="9" t="n">
         <v>89.27</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="W4" s="7" t="n">
         <v>0.19</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="X4" s="7" t="n">
         <v>0.21</v>
       </c>
-      <c r="Y4" s="6" t="inlineStr">
+      <c r="Y4" s="7" t="inlineStr">
         <is>
           <t>Slightly reduced head, good compromise</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" ht="12.75" customHeight="1" s="10">
+      <c r="A5" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>224</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>VANILA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>640 → 256 → 9</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="7" t="n">
         <v>165000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="7" t="n">
         <v>7237</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>0.0001</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.7643</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.7799</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.0643</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>43.4311</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>44.3430</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>78.74</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>80.16</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>87.76</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="K5" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0.7643</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0.7799</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>0.0643</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>0.06320000000000001</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>43.4311</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>44.343</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>78.73999999999999</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="V5" s="9" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="W5" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X5" s="7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y5" s="7" t="inlineStr">
+        <is>
+          <t>TRASH TRASH TRASH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="10">
+      <c r="A6" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>VANILA</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>640 → 256 → 128 → 9</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>197760</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>7237</v>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>1.9143</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>1.9467</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0.07489999999999999</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>109.1739</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>111.0467</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>74.56</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>76.37</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="W6" s="7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="X6" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y6" s="7" t="inlineStr">
+        <is>
+          <t>Placeholder before analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>VANILA</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>640 → 256 → 128 → 9</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>197760</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>7237</v>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>0.6997</v>
+      </c>
+      <c r="N7" s="7" t="n">
+        <v>0.6761</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>39.7865</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>38.4632</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="T7" s="7" t="n">
+        <v>82.36</v>
+      </c>
+      <c r="U7" s="7" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="V7" s="7" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X7" s="7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y7" s="7" t="inlineStr">
+        <is>
+          <t>sanity check on 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>VANILA</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>640 → 256 → 9</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>197760</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>14474</v>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>0.2601</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>0.2718</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>0.0518</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>14.6876</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>15.3411</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>84.33</v>
+      </c>
+      <c r="T8" s="7" t="n">
+        <v>84.06999999999999</v>
+      </c>
+      <c r="U8" s="7" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="V8" s="7" t="n">
+        <v>95.66</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="X8" s="7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y8" s="7" t="inlineStr">
+        <is>
+          <t>sanity check on 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>VANILA</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>640 → 256 → 9</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>197760</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>14474</v>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0.2677</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>0.2765</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>0.0524</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>0.0521</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>15.113</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>15.6071</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>84.33</v>
+      </c>
+      <c r="T9" s="7" t="n">
+        <v>84.06999999999999</v>
+      </c>
+      <c r="U9" s="7" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>95.66</v>
+      </c>
+      <c r="W9" s="7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X9" s="7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y9" s="7" t="inlineStr">
+        <is>
+          <t>sanity check on 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>6ch</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>640 → 256 → 9</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>165000</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>14474</v>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>0.2628</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>0.0473</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>0.0453</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>14.1927</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>14.8876</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <v>85.84</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>86.11</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>95.86</v>
+      </c>
+      <c r="W10" s="7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="X10" s="7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y10" s="7" t="inlineStr">
         <is>
           <t>✅ Baseline test run - decent performance</t>
         </is>
       </c>
     </row>
-    <row r="1048575" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>76</v>
+      </c>
+      <c r="B11" t="n">
+        <v>224</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6ch</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>640 → 256 → 128 → 9</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>197760</v>
+      </c>
+      <c r="F11" t="n">
+        <v>96</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7237</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7798</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7855</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0598</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0583</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>44.3662</v>
+      </c>
+      <c r="R11" t="n">
+        <v>44.7145</v>
+      </c>
+      <c r="S11" t="n">
+        <v>79.68000000000001</v>
+      </c>
+      <c r="T11" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="U11" t="n">
+        <v>87.68000000000001</v>
+      </c>
+      <c r="V11" t="n">
+        <v>87.58</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>✅ Baseline test run - decent performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" s="10"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/model/EVAL.xlsx
+++ b/model/EVAL.xlsx
@@ -297,7 +297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
@@ -1224,87 +1224,517 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="7" t="n">
         <v>224</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>6ch</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr">
         <is>
           <t>640 → 256 → 128 → 9</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="7" t="n">
         <v>197760</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="7" t="n">
         <v>96</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="7" t="n">
         <v>7237</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="7" t="inlineStr">
         <is>
           <t>0.0001</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="7" t="n">
         <v>37.6</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="7" t="n">
         <v>7.5</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="7" t="n">
         <v>0.7798</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="7" t="n">
         <v>0.7855</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="7" t="n">
         <v>0.0598</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="7" t="n">
         <v>0.0583</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="7" t="n">
         <v>44.3662</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="7" t="n">
         <v>44.7145</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="7" t="n">
         <v>79.68000000000001</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="7" t="n">
         <v>81.72</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="7" t="n">
         <v>87.68000000000001</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="7" t="n">
         <v>87.58</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="7" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="7" t="inlineStr">
         <is>
           <t>✅ Baseline test run - decent performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>6ch</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>640 → 256 → 9</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>197760</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>14474</v>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0.2618</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>0.2645</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>14.7909</v>
+      </c>
+      <c r="R12" s="7" t="n">
+        <v>14.9486</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="T12" s="7" t="n">
+        <v>84.68000000000001</v>
+      </c>
+      <c r="U12" s="7" t="n">
+        <v>95.89</v>
+      </c>
+      <c r="V12" s="7" t="n">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="W12" s="7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="X12" s="7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y12" s="7" t="inlineStr">
+        <is>
+          <t>Trying to match model 61, awaiting evaluation</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>77</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>DOUBLE</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>640x2 → 256 → 9</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>165000</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>7237</v>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="N13" s="7" t="n">
+        <v>2.3865</v>
+      </c>
+      <c r="O13" s="7" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="P13" s="7" t="n">
+        <v>0.3149</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>128.6735</v>
+      </c>
+      <c r="R13" s="7" t="n">
+        <v>128.1804</v>
+      </c>
+      <c r="S13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U13" s="7" t="n">
+        <v>64.26000000000001</v>
+      </c>
+      <c r="V13" s="7" t="n">
+        <v>64.39</v>
+      </c>
+      <c r="W13" s="7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X13" s="7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y13" s="7" t="inlineStr">
+        <is>
+          <t>✅ Baseline test run - decent performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>VANILA</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>640 → 512 → 9</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>332288</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>21711</v>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>0.8085</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>0.8367</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>45.854</v>
+      </c>
+      <c r="R14" s="7" t="n">
+        <v>47.4849</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="T14" s="7" t="n">
+        <v>78.66</v>
+      </c>
+      <c r="U14" s="7" t="n">
+        <v>87.26000000000001</v>
+      </c>
+      <c r="V14" s="7" t="n">
+        <v>86.81</v>
+      </c>
+      <c r="W14" s="7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="X14" s="7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Y14" s="7" t="inlineStr">
+        <is>
+          <t>sanity check on 51 because changed the RMSE calculations considerably also changed epoch to 30 to see if there's some more performance to be taken from, changed from 385 to 224
+            NOTE TRAINING HAS BEEN STOPPED PREMATURELY BECAUSE OF NOT UTILIZING ENOUGH RESOURCES CHANGING TO 53 with batch size of 96 to speed up the training</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>VANILA</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>640 → 512 → 9</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>332288</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>21711</v>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0.3127</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>0.3419</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>0.0571</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>0.0578</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>17.6401</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>19.3009</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="T15" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="U15" s="7" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="V15" s="7" t="n">
+        <v>94.64</v>
+      </c>
+      <c r="W15" s="7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X15" s="7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y15" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sanity check on 51 because changed the RMSE calculations considerably also changed epoch to 30 to see if there's some more performance to be taken from, changed from 385 to 224
+            training stopped at epoch 8 due to slow training speed, blowing up the batch did nothing to the training speed
+            </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52</v>
+      </c>
+      <c r="B16" t="n">
+        <v>224</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VANILA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>640 → 512 → 9</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>332288</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21711</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0878</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4.969</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.9576</v>
+      </c>
+      <c r="S16" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>90.31999999999999</v>
+      </c>
+      <c r="U16" t="n">
+        <v>98.62</v>
+      </c>
+      <c r="V16" t="n">
+        <v>98.62</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sanity check on 51 because changed the RMSE calculations considerably also changed epoch to 30 to see if there's some more performance to be taken from, changed from 385 to 224
+            JUST LET IT RUN IT'S COURSE
+            </t>
         </is>
       </c>
     </row>

--- a/model/EVAL.xlsx
+++ b/model/EVAL.xlsx
@@ -190,12 +190,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,32 +238,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,6 +296,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFFAA95"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -386,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -726,157 +812,157 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="6" t="n">
         <v>224</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="6" t="n">
         <v>165000</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="6" t="n">
         <v>7237</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="8" t="n">
         <v>0.7643</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="8" t="n">
         <v>0.7799</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="8" t="n">
         <v>0.0643</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="8" t="n">
         <v>0.0632</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="8" t="n">
         <v>43.4311</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="8" t="n">
         <v>44.343</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="8" t="n">
         <v>78.74</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="T5" s="8" t="n">
         <v>80.16</v>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="8" t="n">
         <v>87.89</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="V5" s="8" t="n">
         <v>87.76</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="W5" s="6" t="n">
         <v>0.15</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="X5" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="6" t="n">
         <v>224</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="6" t="n">
         <v>197760</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="6" t="n">
         <v>7237</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="6" t="n">
         <v>7.6</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="8" t="n">
         <v>1.9143</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="8" t="n">
         <v>1.9467</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="8" t="n">
         <v>0.075</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="P6" s="8" t="n">
         <v>0.0749</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="Q6" s="8" t="n">
         <v>109.1739</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="R6" s="8" t="n">
         <v>111.0467</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="S6" s="8" t="n">
         <v>74.56</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="T6" s="8" t="n">
         <v>76.37</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="U6" s="8" t="n">
         <v>69.57</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="V6" s="8" t="n">
         <v>69.18</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="W6" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="X6" s="6" t="n">
         <v>0.16</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -891,10 +977,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>197760</v>
+        <v>165000</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>32</v>
@@ -1342,162 +1428,162 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="6" t="n">
         <v>224</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="6" t="n">
         <f aca="false">1280*256+256*9</f>
         <v>329984</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="6" t="n">
         <v>7237</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="6" t="n">
         <v>33.9</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="6" t="n">
         <v>2.396</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="N13" s="6" t="n">
         <v>2.3865</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="6" t="n">
         <v>0.3158</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="6" t="n">
         <v>0.3149</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="Q13" s="6" t="n">
         <v>128.6735</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="R13" s="6" t="n">
         <v>128.1804</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="S13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="T13" s="6" t="n">
         <v>1.19</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="U13" s="6" t="n">
         <v>64.26</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="V13" s="6" t="n">
         <v>64.39</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="W13" s="6" t="n">
         <v>1.97</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="X13" s="6" t="n">
         <v>2.33</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="6" t="n">
         <v>224</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="6" t="n">
         <v>332288</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="6" t="n">
         <v>21711</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" s="6" t="n">
         <v>2.7</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="6" t="n">
         <v>0.8085</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="6" t="n">
         <v>0.8367</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="6" t="n">
         <v>0.0737</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="6" t="n">
         <v>0.0725</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="6" t="n">
         <v>45.854</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="R14" s="6" t="n">
         <v>47.4849</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="S14" s="6" t="n">
         <v>77.9</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="T14" s="6" t="n">
         <v>78.66</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="U14" s="6" t="n">
         <v>87.26</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="V14" s="6" t="n">
         <v>86.81</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="W14" s="6" t="n">
         <v>0.99</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="X14" s="6" t="n">
         <v>0.99</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>53</v>
       </c>
@@ -1570,7 +1656,7 @@
       <c r="X15" s="1" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1644,12 +1730,15 @@
       <c r="W16" s="1" t="n">
         <v>0.99</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O23" s="1"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/model/EVAL.xlsx
+++ b/model/EVAL.xlsx
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Trying to match model 61, awaiting evaluation</t>
   </si>
   <si>
-    <t xml:space="preserve">DOUBLE</t>
+    <t xml:space="preserve">SW-Twin</t>
   </si>
   <si>
     <t xml:space="preserve">640x2 → 256 → 9</t>
@@ -237,27 +237,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,8 +386,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X23" activeCellId="0" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1644,7 +1644,7 @@
       <c r="W16" s="1" t="n">
         <v>0.99</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="Y16" s="1" t="s">
